--- a/split_data/input/all_cities/ChiaYi.xlsx
+++ b/split_data/input/all_cities/ChiaYi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2005,7 +2005,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>朴子市台82線7.55K</t>
+          <t>朴子市台82線7.55公里處</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2028,7 +2028,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>東石鄉台61線267.7K</t>
+          <t>東石鄉台61線267.7公里處</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2051,7 +2051,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>朴子市台19線87.5K</t>
+          <t>朴子市台19線87.5公里處</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2074,7 +2074,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>六腳鄉台19線81.5K</t>
+          <t>六腳鄉台19線81.5公里處</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2097,7 +2097,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>六腳鄉台19線72.8K</t>
+          <t>六腳鄉台19線72.8公里處</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -2120,7 +2120,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>朴子市縣道157線31.85K</t>
+          <t>朴子市縣道157線31.85公里處</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -2143,7 +2143,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>六腳鄉縣道157線26.61K</t>
+          <t>六腳鄉縣道157線26.61公里處</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -2166,7 +2166,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>東石鄉157線42.71公里</t>
+          <t>東石鄉縣道157線42.71公里處</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2212,14 +2212,14 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>新港鄉台37線4至5公里</t>
+          <t>六腳鄉縣道159線0.21公里處</t>
         </is>
       </c>
       <c r="G74" t="n">
         <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2235,14 +2235,14 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>新港鄉164線24公里</t>
+          <t>新港鄉台37線4至5公里</t>
         </is>
       </c>
       <c r="G75" t="n">
         <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2258,14 +2258,14 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>新港鄉嘉68線0.8公里處</t>
+          <t>新港鄉164線24公里</t>
         </is>
       </c>
       <c r="G76" t="n">
         <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2281,7 +2281,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>新港鄉嘉68線0.55公里處</t>
+          <t>新港鄉嘉68線0.8公里處</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -2304,7 +2304,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>新港鄉嘉68線1.05公里處</t>
+          <t>新港鄉嘉68線0.55公里處</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -2327,14 +2327,14 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>新港鄉145甲線11.2公里</t>
+          <t>新港鄉嘉68線1.05公里處</t>
         </is>
       </c>
       <c r="G79" t="n">
         <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -2350,7 +2350,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>新港鄉嘉67線1.7公里</t>
+          <t>新港鄉145甲線11.2公里</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -2373,7 +2373,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>新港鄉嘉67線2.2公里</t>
+          <t>新港鄉嘉67線1.7公里</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -2396,7 +2396,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>新港鄉鄉道嘉54線4.3公里</t>
+          <t>新港鄉嘉67線2.2公里</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -2419,7 +2419,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>新港鄉縣道157線24.2公里</t>
+          <t>新港鄉鄉道嘉54線4.3公里</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -2442,14 +2442,14 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>大林鎮台一線250.2公里</t>
+          <t>新港鄉縣道157線24.2公里</t>
         </is>
       </c>
       <c r="G84" t="n">
         <v>5</v>
       </c>
       <c r="H84" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -2465,7 +2465,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>大林鎮台一線250.5公里</t>
+          <t>大林鎮台一線250.2公里</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -2488,7 +2488,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>大林鎮台一線249公里</t>
+          <t>大林鎮台一線250.5公里</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -2511,7 +2511,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>大林鎮台一線248.8公里</t>
+          <t>大林鎮台一線249公里</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -2534,14 +2534,14 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>大林鎮162線13.6公里</t>
+          <t>大林鎮台一線248.8公里</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -2557,14 +2557,14 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>大林鎮台一線253.2公里</t>
+          <t>大林鎮162線13.6公里</t>
         </is>
       </c>
       <c r="G89" t="n">
         <v>5</v>
       </c>
       <c r="H89" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -2580,14 +2580,14 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>大林鎮162線3公里</t>
+          <t>大林鎮台一線253.2公里</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v>5</v>
       </c>
       <c r="H90" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>大林鎮嘉98線5.2公里處</t>
+          <t>大林鎮162線3公里</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -2626,14 +2626,14 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>溪口鄉157線13.15公里</t>
+          <t>大林鎮嘉98線5.2公里處</t>
         </is>
       </c>
       <c r="G92" t="n">
         <v>5</v>
       </c>
       <c r="H92" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>溪口鄉157線13.3公里</t>
+          <t>溪口鄉157線13.15公里</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -2672,14 +2672,14 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>溪口鄉嘉91線2.2公里</t>
+          <t>溪口鄉157線13.3公里</t>
         </is>
       </c>
       <c r="G94" t="n">
         <v>5</v>
       </c>
       <c r="H94" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -2695,14 +2695,14 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>民雄鄉台一線257.6公里</t>
+          <t>溪口鄉嘉91線2.2公里</t>
         </is>
       </c>
       <c r="G95" t="n">
         <v>5</v>
       </c>
       <c r="H95" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -2718,14 +2718,14 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>民雄鄉嘉76線6.2公里</t>
+          <t>民雄鄉台一線257.6公里</t>
         </is>
       </c>
       <c r="G96" t="n">
         <v>5</v>
       </c>
       <c r="H96" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -2741,7 +2741,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>民雄鄉嘉162乙線4公里</t>
+          <t>民雄鄉嘉76線6.2公里</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -2764,7 +2764,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>民雄鄉嘉106線5公里</t>
+          <t>民雄鄉嘉162乙線4公里</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -2787,7 +2787,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>民雄鄉162乙線5.9公里</t>
+          <t>民雄鄉嘉106線5公里</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -2810,7 +2810,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>民雄鄉166線40.3公里</t>
+          <t>民雄鄉162乙線5.9公里</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -2833,7 +2833,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>民雄鄉166線40.25公里</t>
+          <t>民雄鄉166線40.3公里</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -2856,7 +2856,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>民雄鄉大崎村中正路與中正路往大丘園產業道路口</t>
+          <t>民雄鄉166線40.25公里</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -2879,7 +2879,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>民雄鄉164線32.8公里</t>
+          <t>民雄鄉大崎村中正路與中正路往大丘園產業道路口</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -2902,7 +2902,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>民雄鄉台一線259.2公里</t>
+          <t>民雄鄉164線32.8公里</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -2925,16 +2925,14 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>雙向</t>
+          <t>民雄鄉台一線259.2公里</t>
         </is>
       </c>
       <c r="G105" t="n">
         <v>5</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>06-12時、12-18時、20-04時</t>
-        </is>
+      <c r="H105" t="n">
+        <v>50</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -2950,14 +2948,16 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>168線23.8K處</t>
+          <t>雙向</t>
         </is>
       </c>
       <c r="G106" t="n">
         <v>5</v>
       </c>
-      <c r="H106" t="n">
-        <v>70</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>06-12時、12-18時、20-04時</t>
+        </is>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -2973,14 +2973,14 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>168線21.5K處</t>
+          <t>168線23.8K處</t>
         </is>
       </c>
       <c r="G107" t="n">
         <v>5</v>
       </c>
       <c r="H107" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -2996,14 +2996,14 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>台1線水上鄉中山路二段930號（大亨堡婦幼生活館）</t>
+          <t>168線21.5K處</t>
         </is>
       </c>
       <c r="G108" t="n">
         <v>5</v>
       </c>
       <c r="H108" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -3019,14 +3019,14 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>台1線275K處</t>
+          <t>台1線水上鄉中山路二段930號（大亨堡婦幼生活館）</t>
         </is>
       </c>
       <c r="G109" t="n">
         <v>5</v>
       </c>
       <c r="H109" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -3042,7 +3042,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>168新設道路（中莊所）</t>
+          <t>台1線275K處</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -3065,7 +3065,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>水上鄉中義路1007號</t>
+          <t>168新設道路（中莊所）</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -3088,14 +3088,14 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>168線往西16.3K處</t>
+          <t>水上鄉中義路1007號</t>
         </is>
       </c>
       <c r="G112" t="n">
         <v>5</v>
       </c>
       <c r="H112" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -3111,14 +3111,14 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>台18線3.2K處</t>
+          <t>168線往西16.3K處</t>
         </is>
       </c>
       <c r="G113" t="n">
         <v>5</v>
       </c>
       <c r="H113" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
@@ -3134,14 +3134,14 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>台18線4.7K慢車道</t>
+          <t>台18線3.2K處</t>
         </is>
       </c>
       <c r="G114" t="n">
         <v>5</v>
       </c>
       <c r="H114" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I114" t="inlineStr"/>
     </row>
@@ -3157,14 +3157,14 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>台37線6.8K處</t>
+          <t>台18線4.7K慢車道</t>
         </is>
       </c>
       <c r="G115" t="n">
         <v>5</v>
       </c>
       <c r="H115" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I115" t="inlineStr"/>
     </row>
@@ -3180,14 +3180,14 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>北港路二段599號前（新港往南新方向）</t>
+          <t>台37線6.8K處</t>
         </is>
       </c>
       <c r="G116" t="n">
         <v>5</v>
       </c>
       <c r="H116" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I116" t="inlineStr"/>
     </row>
@@ -3203,14 +3203,14 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>太保市中興路一段151號</t>
+          <t>北港路二段599號前（新港往南新方向）</t>
         </is>
       </c>
       <c r="G117" t="n">
         <v>5</v>
       </c>
       <c r="H117" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I117" t="inlineStr"/>
     </row>
@@ -3226,14 +3226,14 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>台18線6.3K（嘉義市往新埤）</t>
+          <t>太保市中興路一段151號</t>
         </is>
       </c>
       <c r="G118" t="n">
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I118" t="inlineStr"/>
     </row>
@@ -3249,14 +3249,14 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>在163線24.2K處</t>
+          <t>台18線6.3K（嘉義市往新埤）</t>
         </is>
       </c>
       <c r="G119" t="n">
         <v>5</v>
       </c>
       <c r="H119" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I119" t="inlineStr"/>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>163線22.8K</t>
+          <t>在163線24.2K處</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -3295,7 +3295,7 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>163線20.9K處</t>
+          <t>163線22.8K</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -3341,7 +3341,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>167線10.5K處</t>
+          <t>163線20.9K處</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -3364,14 +3364,14 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>167線6K處</t>
+          <t>167線10.5K處</t>
         </is>
       </c>
       <c r="G124" t="n">
         <v>5</v>
       </c>
       <c r="H124" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I124" t="inlineStr"/>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>167線5.8K處</t>
+          <t>167線6K處</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -3410,14 +3410,14 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>163線18.3K處</t>
+          <t>167線5.8K處</t>
         </is>
       </c>
       <c r="G126" t="n">
         <v>5</v>
       </c>
       <c r="H126" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I126" t="inlineStr"/>
     </row>
@@ -3433,7 +3433,7 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>163線13.15K處</t>
+          <t>163線18.3K處</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -3456,14 +3456,14 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>163線13.9K處</t>
+          <t>163線13.15K處</t>
         </is>
       </c>
       <c r="G128" t="n">
         <v>5</v>
       </c>
       <c r="H128" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I128" t="inlineStr"/>
     </row>
@@ -3479,14 +3479,14 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>167線10.5K處</t>
+          <t>163線13.9K處</t>
         </is>
       </c>
       <c r="G129" t="n">
         <v>5</v>
       </c>
       <c r="H129" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I129" t="inlineStr"/>
     </row>
@@ -3502,14 +3502,14 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>嘉58線3.5K處</t>
+          <t>167線10.5K處</t>
         </is>
       </c>
       <c r="G130" t="n">
         <v>5</v>
       </c>
       <c r="H130" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I130" t="inlineStr"/>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>167線14.2K處</t>
+          <t>嘉58線3.5K處</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -3548,14 +3548,14 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>台82線16.2K處</t>
+          <t>167線14.2K處</t>
         </is>
       </c>
       <c r="G132" t="n">
         <v>5</v>
       </c>
       <c r="H132" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I132" t="inlineStr"/>
     </row>
@@ -3594,7 +3594,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>台82線18.5K處</t>
+          <t>台82線16.2K處</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -3617,7 +3617,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>台82線20.4K處</t>
+          <t>台82線18.5K處</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -3663,14 +3663,14 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>台18線4.2K慢車道</t>
+          <t>台82線20.4K處</t>
         </is>
       </c>
       <c r="G137" t="n">
         <v>5</v>
       </c>
       <c r="H137" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I137" t="inlineStr"/>
     </row>
@@ -3686,14 +3686,14 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>175線(中義路992號)旁</t>
+          <t>台18線4.2K慢車道</t>
         </is>
       </c>
       <c r="G138" t="n">
         <v>5</v>
       </c>
       <c r="H138" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I138" t="inlineStr"/>
     </row>
@@ -3709,14 +3709,14 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>台一線273.3K(168檳榔攤前)</t>
+          <t>175線(中義路992號)旁</t>
         </is>
       </c>
       <c r="G139" t="n">
         <v>5</v>
       </c>
       <c r="H139" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I139" t="inlineStr"/>
     </row>
@@ -3732,14 +3732,14 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>台3線274.18公里處</t>
+          <t>台一線273.3K(168檳榔攤前)</t>
         </is>
       </c>
       <c r="G140" t="n">
         <v>5</v>
       </c>
       <c r="H140" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I140" t="inlineStr"/>
     </row>
@@ -3755,7 +3755,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>縣道166線44.460公里處</t>
+          <t>台3線274.18公里處</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -3778,14 +3778,14 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>縣道166線43.200公里處</t>
+          <t>縣道166線44.460公里處</t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>5</v>
       </c>
       <c r="H142" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I142" t="inlineStr"/>
     </row>
@@ -3801,14 +3801,14 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>縣道166線51公里處</t>
+          <t>縣道166線43.200公里處</t>
         </is>
       </c>
       <c r="G143" t="n">
         <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I143" t="inlineStr"/>
     </row>
@@ -3824,14 +3824,14 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>縣道159線29公里處</t>
+          <t>縣道166線51公里處</t>
         </is>
       </c>
       <c r="G144" t="n">
         <v>5</v>
       </c>
       <c r="H144" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I144" t="inlineStr"/>
     </row>
@@ -3870,7 +3870,7 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>縣道159線28公里處</t>
+          <t>縣道159線29公里處</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -3893,7 +3893,7 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>縣道166線43.360公里處</t>
+          <t>縣道159線28公里處</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -3916,7 +3916,7 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>台3線273公里處</t>
+          <t>縣道166線43.360公里處</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -3962,14 +3962,14 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>梅山鄉環南路454號</t>
+          <t>台3線273公里處</t>
         </is>
       </c>
       <c r="G150" t="n">
         <v>5</v>
       </c>
       <c r="H150" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I150" t="inlineStr"/>
     </row>
@@ -3985,7 +3985,7 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>梅山鄉環南路382號</t>
+          <t>梅山鄉環南路454號</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -4008,14 +4008,14 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>台18線59.7公里處</t>
+          <t>梅山鄉環南路382號</t>
         </is>
       </c>
       <c r="G152" t="n">
         <v>5</v>
       </c>
       <c r="H152" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I152" t="inlineStr"/>
     </row>
@@ -4054,7 +4054,7 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>台18線62.2公里處</t>
+          <t>台18線59.7公里處</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -4077,7 +4077,7 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>台18線63.5公里處</t>
+          <t>台18線62.2公里處</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -4100,14 +4100,14 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>縣道166線43.184公里處</t>
+          <t>台18線63.5公里處</t>
         </is>
       </c>
       <c r="G156" t="n">
         <v>5</v>
       </c>
       <c r="H156" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I156" t="inlineStr"/>
     </row>
@@ -4123,14 +4123,14 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>竹崎鄉鹿滿村頂溪心3號(民生路勤築公司)</t>
+          <t>縣道166線43.184公里處</t>
         </is>
       </c>
       <c r="G157" t="n">
         <v>5</v>
       </c>
       <c r="H157" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I157" t="inlineStr"/>
     </row>
@@ -4169,16 +4169,39 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
+          <t>竹崎鄉鹿滿村頂溪心3號(民生路勤築公司)</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>40</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>嘉義縣</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>台3線275.59公里處</t>
         </is>
       </c>
-      <c r="G159" t="n">
-        <v>5</v>
-      </c>
-      <c r="H159" t="n">
+      <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="n">
         <v>60</v>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
